--- a/xlsx/城邦_intext.xlsx
+++ b/xlsx/城邦_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
   <si>
     <t>城邦</t>
   </si>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E6%9D%83</t>
@@ -71,10 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
   </si>
   <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>希臘城邦</t>
+    <t>梵蒂冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8</t>
@@ -86,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%B7%B4%E9%81%94</t>
   </si>
   <si>
-    <t>斯巴達</t>
+    <t>斯巴达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E5%8D%97</t>
@@ -122,19 +119,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%9B%85%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>瑪雅文明</t>
+    <t>玛雅文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B2%E7%B6%A2%E4%B9%8B%E8%B7%AF</t>
   </si>
   <si>
-    <t>絲綢之路</t>
+    <t>丝绸之路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E9%A6%AC%E7%88%BE%E7%BD%95</t>
   </si>
   <si>
-    <t>撒馬爾罕</t>
+    <t>撒马尔罕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%93%88%E6%8B%89</t>
@@ -176,31 +173,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>古希臘</t>
+    <t>古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>文藝復興</t>
+    <t>文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>民族國家</t>
+    <t>民族国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里士多德</t>
+    <t>亚里士多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -218,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%8E%8B%E6%9C%9D%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前王朝時期</t>
+    <t>前王朝时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -248,19 +245,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E9%9B%85%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>玛雅文明</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E5%8C%96</t>
@@ -272,39 +266,36 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%82</t>
   </si>
   <si>
-    <t>羅馬市</t>
+    <t>罗马市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>主權國家</t>
+    <t>主权国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E9%81%94</t>
   </si>
   <si>
-    <t>百慕達</t>
+    <t>百慕达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80</t>
   </si>
   <si>
-    <t>直布羅陀</t>
+    <t>直布罗陀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
   </si>
   <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD</t>
   </si>
   <si>
@@ -344,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%B4%A2%E6%96%AF%E5%B1%B1</t>
@@ -362,25 +353,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E5%9C%8B</t>
   </si>
   <si>
-    <t>自治國</t>
+    <t>自治国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
   </si>
   <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>海外領地</t>
+    <t>海外领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%8E%B1</t>
@@ -398,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -410,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>特別行政區</t>
+    <t>特别行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -422,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E6%95%A2</t>
@@ -434,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>自治區</t>
+    <t>自治区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E9%98%BF%E9%82%A6</t>
@@ -464,9 +452,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
   </si>
   <si>
-    <t>亚洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E6%89%8E%E6%AF%94_(%E9%85%8B%E9%95%BF%E5%9B%BD)</t>
   </si>
   <si>
@@ -476,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>酋長國</t>
+    <t>酋长国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%8B%9C</t>
@@ -542,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -560,19 +545,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -584,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%B2%81%E5%B7%B4</t>
@@ -596,19 +581,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A7%8B%E6%88%90%E5%9C%8B</t>
   </si>
   <si>
-    <t>構成國</t>
+    <t>构成国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E6%8B%89%E7%B4%A2</t>
@@ -626,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E6%B2%99%E5%B7%B4</t>
   </si>
   <si>
-    <t>荷屬沙巴</t>
+    <t>荷属沙巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B0%A4%E6%96%AF%E7%89%B9%E6%AD%87%E6%96%AF</t>
@@ -650,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E9%81%94</t>
   </si>
   <si>
-    <t>休達</t>
+    <t>休达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E5%B8%82</t>
@@ -668,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%88%A9%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>梅利利亞</t>
+    <t>梅利利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%9F%83</t>
@@ -680,13 +665,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%B9%AB%E9%82%A6</t>
   </si>
   <si>
-    <t>聯繫邦</t>
+    <t>联系邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -704,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%81%AF%E6%9B%B8%E5%BA%97%EF%BC%88%E9%A6%99%E6%B8%AF%EF%BC%89%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>三聯書店（香港）有限公司</t>
+    <t>三联书店（香港）有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%9D%83</t>
@@ -716,13 +701,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
-    <t>国家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>微型國家</t>
+    <t>微型国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%82%A6</t>
@@ -734,13 +716,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9F%8E%E9%82%A6%E8%AB%96</t>
   </si>
   <si>
-    <t>香港城邦論</t>
+    <t>香港城邦论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1384,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1410,10 +1392,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1439,10 +1421,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
         <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1468,10 +1450,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
         <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1497,10 +1479,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
         <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1526,10 +1508,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
         <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1555,10 +1537,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
         <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1584,10 +1566,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1613,10 +1595,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
         <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1642,10 +1624,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
         <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1671,10 +1653,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
         <v>38</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1700,10 +1682,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
         <v>40</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1729,10 +1711,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
         <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1758,10 +1740,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
         <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1787,10 +1769,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
         <v>46</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1816,10 +1798,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
         <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>49</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1845,10 +1827,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
         <v>50</v>
-      </c>
-      <c r="F26" t="s">
-        <v>51</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1874,10 +1856,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
         <v>52</v>
-      </c>
-      <c r="F27" t="s">
-        <v>53</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1903,10 +1885,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" t="s">
         <v>54</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1932,10 +1914,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>56</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
       </c>
       <c r="G29" t="n">
         <v>13</v>
@@ -1961,10 +1943,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
         <v>58</v>
-      </c>
-      <c r="F30" t="s">
-        <v>59</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1990,10 +1972,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
         <v>60</v>
-      </c>
-      <c r="F31" t="s">
-        <v>61</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2019,10 +2001,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" t="s">
         <v>62</v>
-      </c>
-      <c r="F32" t="s">
-        <v>63</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2048,10 +2030,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
         <v>64</v>
-      </c>
-      <c r="F33" t="s">
-        <v>65</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2077,10 +2059,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
         <v>66</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2106,10 +2088,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" t="s">
         <v>68</v>
-      </c>
-      <c r="F35" t="s">
-        <v>69</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -2135,10 +2117,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
         <v>70</v>
-      </c>
-      <c r="F36" t="s">
-        <v>71</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2164,10 +2146,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
         <v>72</v>
-      </c>
-      <c r="F37" t="s">
-        <v>73</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2193,10 +2175,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" t="s">
         <v>74</v>
-      </c>
-      <c r="F38" t="s">
-        <v>75</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2222,10 +2204,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2251,10 +2233,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G40" t="n">
         <v>5</v>
@@ -2283,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2309,10 +2291,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2338,10 +2320,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2367,10 +2349,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2396,10 +2378,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2425,10 +2407,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -2454,10 +2436,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2483,10 +2465,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2512,10 +2494,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2541,10 +2523,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>18</v>
@@ -2570,10 +2552,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2599,10 +2581,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2628,10 +2610,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2657,10 +2639,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2686,10 +2668,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2715,10 +2697,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2744,10 +2726,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2773,10 +2755,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2802,10 +2784,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2831,10 +2813,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2860,10 +2842,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2889,10 +2871,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G62" t="n">
         <v>16</v>
@@ -2918,10 +2900,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2947,10 +2929,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2976,10 +2958,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3005,10 +2987,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -3034,10 +3016,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3063,10 +3045,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3092,10 +3074,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3121,10 +3103,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3150,10 +3132,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3179,10 +3161,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3208,10 +3190,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F73" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3237,10 +3219,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G74" t="n">
         <v>54</v>
@@ -3266,10 +3248,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3295,10 +3277,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3324,10 +3306,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3353,10 +3335,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>7</v>
@@ -3382,10 +3364,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>7</v>
@@ -3411,10 +3393,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3440,10 +3422,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3469,10 +3451,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3498,10 +3480,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3527,10 +3509,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3556,10 +3538,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3585,10 +3567,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3614,10 +3596,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3643,10 +3625,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3672,10 +3654,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3701,10 +3683,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>10</v>
@@ -3730,10 +3712,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3759,10 +3741,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3788,10 +3770,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3817,10 +3799,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3846,10 +3828,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3875,10 +3857,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -3904,10 +3886,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3933,10 +3915,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -3962,10 +3944,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>6</v>
@@ -3991,10 +3973,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4020,10 +4002,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4049,10 +4031,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4078,10 +4060,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4107,10 +4089,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4136,10 +4118,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4165,10 +4147,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>3</v>
@@ -4194,10 +4176,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4223,10 +4205,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4252,10 +4234,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4281,10 +4263,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4310,10 +4292,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4339,10 +4321,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4368,10 +4350,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4397,10 +4379,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4426,10 +4408,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4455,10 +4437,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4484,10 +4466,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4513,10 +4495,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -4542,10 +4524,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4571,10 +4553,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4600,10 +4582,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4629,10 +4611,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -4658,10 +4640,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4687,10 +4669,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>

--- a/xlsx/城邦_intext.xlsx
+++ b/xlsx/城邦_intext.xlsx
@@ -29,7 +29,7 @@
     <t>希腊城邦</t>
   </si>
   <si>
-    <t>政策_政策_政治_城邦</t>
+    <t>体育运动_体育运动_古罗马_城邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%82%A6%E6%96%87%E5%8C%96</t>
@@ -695,10 +695,10 @@
     <t>大洋洲</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Sri_Aurobindo</t>
-  </si>
-  <si>
-    <t>en-Sri Aurobindo</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%AB%E5%88%A9%C2%B7%E5%A5%A7%E7%BE%85%E8%B3%93%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>師利·奧羅賓多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%81%AF%E6%9B%B8%E5%BA%97%EF%BC%88%E9%A6%99%E6%B8%AF%EF%BC%89%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
